--- a/tests/revival-records-testing-about.xlsx
+++ b/tests/revival-records-testing-about.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalebOlson\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="37540" windowHeight="19980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="32">
   <si>
     <t>PASSED</t>
   </si>
@@ -109,13 +114,19 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Caleb Olson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +161,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,13 +398,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -393,40 +406,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,33 +429,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -485,6 +504,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -813,20 +840,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" thickBot="1">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,841 +869,1145 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickTop="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="31" thickBot="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="D10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="31" thickBot="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+    <row r="19" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="33" t="s">
+      <c r="D19" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="D23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="31" thickBot="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="41"/>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="33" t="s">
+      <c r="D28" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="D36" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="31" thickBot="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="41"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="33" t="s">
+      <c r="D37" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="D40" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="D41" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="D42" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
+    <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="D44" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18" t="s">
+    <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="D45" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="D46" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="31" thickBot="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21" t="s">
+    <row r="47" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="41"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="38" t="s">
+      <c r="D47" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
       <c r="B49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="8"/>
+    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="D54" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
       <c r="B55" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="30">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="31" thickBot="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="32"/>
+      <c r="B57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="41"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
+      <c r="D57" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
       <c r="B59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="30">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="D61" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="30">
-      <c r="A62" s="8"/>
+    <row r="62" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="D62" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="8"/>
+    <row r="63" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="D63" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="8"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="D64" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="30">
-      <c r="A65" s="8"/>
+    <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
       <c r="B65" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="D65" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="30">
-      <c r="A66" s="8"/>
+    <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
       <c r="B66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="31" thickBot="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11" t="s">
+    <row r="67" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="41"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="38" t="s">
+      <c r="D67" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="8"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="D69" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="30">
-      <c r="A70" s="8"/>
+    <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="30">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="D71" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="30">
-      <c r="A72" s="8"/>
+    <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="D72" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="30">
-      <c r="A73" s="8"/>
+    <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="D73" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="8"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="30">
-      <c r="A75" s="8"/>
+    <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
       <c r="B75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="D75" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="30">
-      <c r="A76" s="8"/>
+    <row r="76" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
       <c r="B76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="D76" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="31" thickBot="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11" t="s">
+    <row r="77" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
+      <c r="B77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="41"/>
+      <c r="D77" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1690,7 +2021,7 @@
     <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
